--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙1.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙1.xlsx
@@ -82,8 +82,8 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -96,29 +96,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -126,15 +118,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,17 +132,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,15 +150,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,25 +209,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,18 +224,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -272,13 +272,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,7 +290,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,73 +416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,31 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,37 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,8 +491,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,36 +517,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,6 +538,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -568,20 +571,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,148 +590,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2717,7 +2717,7 @@
   <dimension ref="A1:U499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2807,7 +2807,7 @@
         <v>24.68</v>
       </c>
       <c r="G2" s="4">
-        <f>F2/(1-VLOOKUP([1]交易计划及执行表!A4,[1]交易计划及执行表!A4:BL10001,43,FALSE))</f>
+        <f>F2/(1-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10001,43,FALSE))</f>
         <v>26.2</v>
       </c>
       <c r="H2" s="4">
@@ -2861,7 +2861,7 @@
         <v>24.68</v>
       </c>
       <c r="G3" s="4">
-        <f>F3/(1-VLOOKUP([1]交易计划及执行表!A4,[1]交易计划及执行表!A4:BL10002,43,FALSE))</f>
+        <f>F3/(1-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10002,43,FALSE))</f>
         <v>26.2</v>
       </c>
       <c r="H3" s="4">
@@ -2918,7 +2918,7 @@
         <v>24.68</v>
       </c>
       <c r="G4" s="4">
-        <f>F4/(1-VLOOKUP([1]交易计划及执行表!A4,[1]交易计划及执行表!A4:BL10002,43,FALSE))</f>
+        <f>F4/(1-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10003,43,FALSE))</f>
         <v>26.2</v>
       </c>
       <c r="H4" s="4">
@@ -2975,7 +2975,7 @@
         <v>24.68</v>
       </c>
       <c r="G5" s="4">
-        <f>F5/(1-VLOOKUP([1]交易计划及执行表!A4,[1]交易计划及执行表!A4:BL10004,43,FALSE))</f>
+        <f>F5/(1-VLOOKUP([1]交易计划及执行表!$A$4,[1]交易计划及执行表!$A$4:$BL10004,43,FALSE))</f>
         <v>26.2</v>
       </c>
       <c r="H5" s="4">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙1.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/楚天龙1.xlsx
@@ -261,12 +261,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -299,13 +299,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -321,45 +314,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,7 +329,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,17 +361,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -409,6 +372,43 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,7 +498,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,25 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,7 +564,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,49 +594,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,7 +618,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,55 +672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,15 +719,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -745,11 +736,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,21 +780,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,94 +803,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -899,49 +899,49 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -964,16 +964,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1018,13 +1018,13 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -2975,11 +2975,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
